--- a/data/raw/election/voters-age-sex-education/2023/Bayburt.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bayburt.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:29:06-17279574873" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="32">
   <si>
     <t>Bayburt</t>
   </si>
@@ -110,6 +109,12 @@
   </si>
   <si>
     <t>Demirözü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -663,10 +668,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -991,10 +1005,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,20 +1028,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2061,8 +2075,8 @@
       <c r="D30" s="5">
         <v>261</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.4530000000000001</v>
+      <c r="E30" s="7">
+        <v>1453</v>
       </c>
       <c r="F30" s="5">
         <v>455</v>
@@ -2070,8 +2084,8 @@
       <c r="G30" s="5">
         <v>535</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.236</v>
+      <c r="H30" s="7">
+        <v>1236</v>
       </c>
       <c r="I30" s="5">
         <v>595</v>
@@ -2085,8 +2099,8 @@
       <c r="L30" s="5">
         <v>69</v>
       </c>
-      <c r="M30" s="5">
-        <v>4.8769999999999998</v>
+      <c r="M30" s="7">
+        <v>4877</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2150,8 +2164,8 @@
       <c r="G32" s="4">
         <v>609</v>
       </c>
-      <c r="H32" s="4">
-        <v>2.363</v>
+      <c r="H32" s="9">
+        <v>2363</v>
       </c>
       <c r="I32" s="4">
         <v>698</v>
@@ -2165,8 +2179,8 @@
       <c r="L32" s="4">
         <v>27</v>
       </c>
-      <c r="M32" s="5">
-        <v>3.7170000000000001</v>
+      <c r="M32" s="7">
+        <v>3717</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,8 +2203,8 @@
       <c r="G33" s="4">
         <v>540</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.0840000000000001</v>
+      <c r="H33" s="9">
+        <v>2084</v>
       </c>
       <c r="I33" s="4">
         <v>781</v>
@@ -2204,8 +2218,8 @@
       <c r="L33" s="4">
         <v>16</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.4569999999999999</v>
+      <c r="M33" s="7">
+        <v>3457</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2230,11 +2244,11 @@
       <c r="G34" s="4">
         <v>408</v>
       </c>
-      <c r="H34" s="4">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.5269999999999999</v>
+      <c r="H34" s="9">
+        <v>1019</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1527</v>
       </c>
       <c r="J34" s="4">
         <v>124</v>
@@ -2245,8 +2259,8 @@
       <c r="L34" s="4">
         <v>24</v>
       </c>
-      <c r="M34" s="5">
-        <v>3.1259999999999999</v>
+      <c r="M34" s="7">
+        <v>3126</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2272,8 +2286,8 @@
       <c r="H35" s="4">
         <v>642</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.353</v>
+      <c r="I35" s="9">
+        <v>1353</v>
       </c>
       <c r="J35" s="4">
         <v>148</v>
@@ -2284,8 +2298,8 @@
       <c r="L35" s="4">
         <v>8</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.7719999999999998</v>
+      <c r="M35" s="7">
+        <v>2772</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2325,8 +2339,8 @@
       <c r="L36" s="4">
         <v>12</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.4390000000000001</v>
+      <c r="M36" s="7">
+        <v>2439</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2364,8 +2378,8 @@
       <c r="L37" s="4">
         <v>15</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.238</v>
+      <c r="M37" s="7">
+        <v>2238</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2405,8 +2419,8 @@
       <c r="L38" s="4">
         <v>11</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.1850000000000001</v>
+      <c r="M38" s="7">
+        <v>2185</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2444,8 +2458,8 @@
       <c r="L39" s="4">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.097</v>
+      <c r="M39" s="7">
+        <v>2097</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2485,8 +2499,8 @@
       <c r="L40" s="4">
         <v>16</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.125</v>
+      <c r="M40" s="7">
+        <v>2125</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2524,8 +2538,8 @@
       <c r="L41" s="4">
         <v>17</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.861</v>
+      <c r="M41" s="7">
+        <v>1861</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2565,8 +2579,8 @@
       <c r="L42" s="4">
         <v>29</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.893</v>
+      <c r="M42" s="7">
+        <v>1893</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2604,8 +2618,8 @@
       <c r="L43" s="4">
         <v>16</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.722</v>
+      <c r="M43" s="7">
+        <v>1722</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2645,8 +2659,8 @@
       <c r="L44" s="4">
         <v>20</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.71</v>
+      <c r="M44" s="7">
+        <v>1710</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2684,8 +2698,8 @@
       <c r="L45" s="4">
         <v>20</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.6910000000000001</v>
+      <c r="M45" s="7">
+        <v>1691</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2725,8 +2739,8 @@
       <c r="L46" s="4">
         <v>28</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.643</v>
+      <c r="M46" s="7">
+        <v>1643</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2764,8 +2778,8 @@
       <c r="L47" s="4">
         <v>15</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.623</v>
+      <c r="M47" s="7">
+        <v>1623</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,8 +2819,8 @@
       <c r="L48" s="4">
         <v>20</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.417</v>
+      <c r="M48" s="7">
+        <v>1417</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2844,8 +2858,8 @@
       <c r="L49" s="4">
         <v>19</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.4259999999999999</v>
+      <c r="M49" s="7">
+        <v>1426</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2885,8 +2899,8 @@
       <c r="L50" s="4">
         <v>25</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.2569999999999999</v>
+      <c r="M50" s="7">
+        <v>1257</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2924,8 +2938,8 @@
       <c r="L51" s="4">
         <v>30</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.347</v>
+      <c r="M51" s="7">
+        <v>1347</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3045,8 +3059,8 @@
       <c r="L54" s="4">
         <v>58</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.165</v>
+      <c r="M54" s="7">
+        <v>1165</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3084,8 +3098,8 @@
       <c r="L55" s="4">
         <v>45</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.6539999999999999</v>
+      <c r="M55" s="7">
+        <v>1654</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3093,29 +3107,29 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>8.5950000000000006</v>
-      </c>
-      <c r="F56" s="5">
-        <v>4.274</v>
-      </c>
-      <c r="G56" s="5">
-        <v>5.9740000000000002</v>
-      </c>
-      <c r="H56" s="5">
-        <v>13.057</v>
-      </c>
-      <c r="I56" s="5">
-        <v>9.1989999999999998</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.113</v>
+      <c r="C56" s="7">
+        <v>1797</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1562</v>
+      </c>
+      <c r="E56" s="7">
+        <v>8595</v>
+      </c>
+      <c r="F56" s="7">
+        <v>4274</v>
+      </c>
+      <c r="G56" s="7">
+        <v>5974</v>
+      </c>
+      <c r="H56" s="7">
+        <v>13057</v>
+      </c>
+      <c r="I56" s="7">
+        <v>9199</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1113</v>
       </c>
       <c r="K56" s="5">
         <v>316</v>
@@ -3123,8 +3137,8 @@
       <c r="L56" s="5">
         <v>546</v>
       </c>
-      <c r="M56" s="5">
-        <v>46.433</v>
+      <c r="M56" s="7">
+        <v>46433</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4137,8 +4151,8 @@
       <c r="D82" s="5">
         <v>299</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.4379999999999999</v>
+      <c r="E82" s="7">
+        <v>1438</v>
       </c>
       <c r="F82" s="5">
         <v>636</v>
@@ -4146,8 +4160,8 @@
       <c r="G82" s="5">
         <v>997</v>
       </c>
-      <c r="H82" s="5">
-        <v>1.405</v>
+      <c r="H82" s="7">
+        <v>1405</v>
       </c>
       <c r="I82" s="5">
         <v>585</v>
@@ -4161,8 +4175,18 @@
       <c r="L82" s="5">
         <v>88</v>
       </c>
-      <c r="M82" s="5">
-        <v>5.8239999999999998</v>
+      <c r="M82" s="7">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
